--- a/data/trans_bre/P7_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P7_R-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 19,85</t>
+          <t>-3,07; 18,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 17,87</t>
+          <t>-3,85; 19,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 18,28</t>
+          <t>-4,42; 17,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 17,22</t>
+          <t>-4,44; 16,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-16,27; 135,66</t>
+          <t>-12,31; 125,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,2; 135,77</t>
+          <t>-19,16; 134,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-20,34; 108,08</t>
+          <t>-16,56; 102,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-14,97; 90,69</t>
+          <t>-14,35; 88,12</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,75; 18,4</t>
+          <t>8,88; 18,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,52; 14,43</t>
+          <t>4,66; 15,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,7; 15,88</t>
+          <t>6,45; 16,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 7,58</t>
+          <t>-2,22; 7,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>44,74; 125,88</t>
+          <t>46,37; 129,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,58; 89,91</t>
+          <t>22,97; 96,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>38,85; 119,94</t>
+          <t>37,47; 118,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 37,28</t>
+          <t>-8,77; 36,72</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,32; 19,8</t>
+          <t>12,69; 20,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,2; 13,67</t>
+          <t>6,23; 13,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,75; 11,78</t>
+          <t>5,14; 12,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,73; 13,77</t>
+          <t>6,95; 13,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>71,97; 145,12</t>
+          <t>71,61; 150,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>32,26; 85,19</t>
+          <t>32,05; 86,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>27,54; 85,14</t>
+          <t>29,53; 87,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>41,34; 113,24</t>
+          <t>42,47; 114,55</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,72; 14,63</t>
+          <t>6,08; 14,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,27; 15,83</t>
+          <t>6,97; 15,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,05; 10,3</t>
+          <t>1,97; 10,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 6,55</t>
+          <t>-4,85; 6,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,41; 107,3</t>
+          <t>33,95; 107,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>38,87; 109,59</t>
+          <t>36,37; 108,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,08; 74,56</t>
+          <t>11,15; 78,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-27,62; 45,37</t>
+          <t>-25,26; 42,25</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,33; 15,41</t>
+          <t>8,4; 15,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,16; 13,48</t>
+          <t>6,1; 13,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,62; 12,0</t>
+          <t>4,22; 11,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,45; 8,38</t>
+          <t>1,82; 8,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>51,86; 118,81</t>
+          <t>54,12; 122,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>37,58; 102,04</t>
+          <t>37,22; 99,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>27,41; 89,38</t>
+          <t>25,92; 86,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,73; 48,98</t>
+          <t>8,24; 48,36</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,09; 15,1</t>
+          <t>11,06; 15,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,1; 12,23</t>
+          <t>7,96; 12,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,13; 10,02</t>
+          <t>6,23; 10,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,98; 7,49</t>
+          <t>2,83; 7,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>66,42; 102,7</t>
+          <t>66,83; 103,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>46,43; 78,67</t>
+          <t>45,32; 76,66</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>36,78; 67,25</t>
+          <t>37,08; 69,86</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,55; 45,65</t>
+          <t>15,37; 45,37</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P7_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P7_R-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 18,94</t>
+          <t>-3,76; 18,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 19,22</t>
+          <t>-3,02; 18,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 17,51</t>
+          <t>-4,78; 18,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-12,31; 125,33</t>
+          <t>-13,64; 118,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,16; 134,67</t>
+          <t>-13,84; 144,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-16,56; 102,61</t>
+          <t>-18,52; 106,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,88; 18,66</t>
+          <t>8,55; 17,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,66; 15,17</t>
+          <t>4,41; 15,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,45; 16,03</t>
+          <t>6,84; 16,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>46,37; 129,13</t>
+          <t>42,91; 124,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,97; 96,3</t>
+          <t>20,53; 96,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>37,47; 118,75</t>
+          <t>38,13; 126,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,69; 20,72</t>
+          <t>12,3; 19,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,23; 13,62</t>
+          <t>6,13; 13,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,14; 12,46</t>
+          <t>4,46; 11,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>71,61; 150,86</t>
+          <t>72,14; 143,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>32,05; 86,17</t>
+          <t>31,79; 86,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>29,53; 87,56</t>
+          <t>25,47; 82,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,08; 14,86</t>
+          <t>6,24; 14,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,97; 15,62</t>
+          <t>6,77; 15,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,97; 10,55</t>
+          <t>2,05; 10,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>33,95; 107,54</t>
+          <t>32,8; 108,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>36,37; 108,66</t>
+          <t>35,32; 109,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,15; 78,38</t>
+          <t>11,62; 74,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,4; 15,33</t>
+          <t>8,76; 15,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,1; 13,33</t>
+          <t>6,42; 13,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,22; 11,48</t>
+          <t>4,35; 11,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>54,12; 122,11</t>
+          <t>54,84; 124,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>37,22; 99,57</t>
+          <t>38,36; 102,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>25,92; 86,59</t>
+          <t>26,99; 85,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,06; 15,1</t>
+          <t>10,91; 14,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,96; 12,04</t>
+          <t>8,09; 12,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,23; 10,3</t>
+          <t>6,19; 10,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>66,83; 103,0</t>
+          <t>66,4; 99,1</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>45,32; 76,66</t>
+          <t>45,46; 77,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>37,08; 69,86</t>
+          <t>37,51; 68,17</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">

--- a/data/trans_bre/P7_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P7_R-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 18,23</t>
+          <t>-3,87; 19,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 18,83</t>
+          <t>-4,04; 17,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 18,67</t>
+          <t>-5,35; 18,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 16,96</t>
+          <t>-4,46; 17,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,64; 118,77</t>
+          <t>-16,27; 135,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,84; 144,14</t>
+          <t>-19,2; 135,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-18,52; 106,19</t>
+          <t>-20,34; 108,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-14,35; 88,12</t>
+          <t>-14,97; 90,69</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,55; 17,98</t>
+          <t>8,75; 18,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,41; 15,12</t>
+          <t>4,52; 14,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,84; 16,47</t>
+          <t>6,7; 15,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 7,46</t>
+          <t>-2,59; 7,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>42,91; 124,24</t>
+          <t>44,74; 125,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,53; 96,12</t>
+          <t>21,58; 89,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>38,13; 126,03</t>
+          <t>38,85; 119,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-8,77; 36,72</t>
+          <t>-10,34; 37,28</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,3; 19,95</t>
+          <t>12,32; 19,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,13; 13,49</t>
+          <t>6,2; 13,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,46; 11,79</t>
+          <t>4,75; 11,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,95; 13,82</t>
+          <t>6,73; 13,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>72,14; 143,53</t>
+          <t>71,97; 145,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>31,79; 86,48</t>
+          <t>32,26; 85,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>25,47; 82,95</t>
+          <t>27,54; 85,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>42,47; 114,55</t>
+          <t>41,34; 113,24</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,24; 14,73</t>
+          <t>5,72; 14,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,77; 15,61</t>
+          <t>7,27; 15,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,05; 10,24</t>
+          <t>2,05; 10,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 6,14</t>
+          <t>-4,96; 6,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>32,8; 108,15</t>
+          <t>31,41; 107,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>35,32; 109,53</t>
+          <t>38,87; 109,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,62; 74,84</t>
+          <t>12,08; 74,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-25,26; 42,25</t>
+          <t>-27,62; 45,37</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,76; 15,71</t>
+          <t>8,33; 15,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,42; 13,18</t>
+          <t>6,16; 13,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,35; 11,41</t>
+          <t>4,62; 12,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,82; 8,43</t>
+          <t>1,45; 8,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>54,84; 124,36</t>
+          <t>51,86; 118,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>38,36; 102,13</t>
+          <t>37,58; 102,04</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>26,99; 85,46</t>
+          <t>27,41; 89,38</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,24; 48,36</t>
+          <t>6,73; 48,98</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,91; 14,79</t>
+          <t>11,09; 15,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,09; 12,04</t>
+          <t>8,1; 12,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,19; 10,13</t>
+          <t>6,13; 10,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,83; 7,65</t>
+          <t>2,98; 7,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>66,4; 99,1</t>
+          <t>66,42; 102,7</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>45,46; 77,13</t>
+          <t>46,43; 78,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>37,51; 68,17</t>
+          <t>36,78; 67,25</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>15,37; 45,37</t>
+          <t>16,55; 45,65</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P7_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P7_R-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,23</t>
+          <t>12,71</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,83</t>
+          <t>9,57</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,3</t>
+          <t>10,45</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,61</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>39,94%</t>
+          <t>73,89%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>43,24%</t>
+          <t>52,82%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>27,84%</t>
+          <t>62,67%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>25,25%</t>
+          <t>11,72%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 19,85</t>
+          <t>8,19; 16,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 17,87</t>
+          <t>5,11; 13,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 18,28</t>
+          <t>5,46; 14,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 17,22</t>
+          <t>-3,79; 6,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-16,27; 135,66</t>
+          <t>41,55; 111,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,2; 135,77</t>
+          <t>25,44; 87,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-20,34; 108,08</t>
+          <t>28,33; 101,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-14,97; 90,69</t>
+          <t>-13,87; 33,23</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,6</t>
+          <t>16,23</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,9</t>
+          <t>9,71</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,32</t>
+          <t>8,46</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,65</t>
+          <t>12,78</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>82,32%</t>
+          <t>104,63%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>54,65%</t>
+          <t>55,23%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>73,4%</t>
+          <t>54,25%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>11,75%</t>
+          <t>109,11%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,75; 18,4</t>
+          <t>12,32; 19,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,52; 14,43</t>
+          <t>6,2; 13,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,7; 15,88</t>
+          <t>4,75; 11,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 7,58</t>
+          <t>8,7; 19,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>44,74; 125,88</t>
+          <t>71,97; 145,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,58; 89,91</t>
+          <t>32,26; 85,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>38,85; 119,94</t>
+          <t>27,54; 85,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 37,28</t>
+          <t>56,2; 311,44</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,23</t>
+          <t>10,45</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,71</t>
+          <t>11,35</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,46</t>
+          <t>6,29</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,1</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>104,63%</t>
+          <t>65,77%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>55,23%</t>
+          <t>69,48%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>54,25%</t>
+          <t>39,93%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>70,66%</t>
+          <t>1,01%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,32; 19,8</t>
+          <t>5,72; 14,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,2; 13,67</t>
+          <t>7,27; 15,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,75; 11,78</t>
+          <t>2,05; 10,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,73; 13,77</t>
+          <t>-9,6; 6,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>71,97; 145,12</t>
+          <t>31,41; 107,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>32,26; 85,19</t>
+          <t>38,87; 109,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>27,54; 85,14</t>
+          <t>12,08; 74,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>41,34; 113,24</t>
+          <t>-48,63; 41,14</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,45</t>
+          <t>11,96</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,35</t>
+          <t>9,81</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,29</t>
+          <t>7,94</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>4,17</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>65,77%</t>
+          <t>82,71%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>69,48%</t>
+          <t>65,96%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>39,93%</t>
+          <t>52,71%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>13,31%</t>
+          <t>22,08%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,72; 14,63</t>
+          <t>8,33; 15,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,27; 15,83</t>
+          <t>6,16; 13,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,05; 10,3</t>
+          <t>4,62; 12,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 6,55</t>
+          <t>-0,69; 7,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,41; 107,3</t>
+          <t>51,86; 118,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>38,87; 109,59</t>
+          <t>37,58; 102,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,08; 74,56</t>
+          <t>27,41; 89,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-27,62; 45,37</t>
+          <t>-3,25; 44,99</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>11,96</t>
+          <t>12,99</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,81</t>
+          <t>10,02</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,94</t>
+          <t>8,18</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,19</t>
+          <t>5,61</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>82,71%</t>
+          <t>83,06%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>65,96%</t>
+          <t>60,1%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>52,71%</t>
+          <t>52,13%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>27,01%</t>
+          <t>34,01%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,33; 15,41</t>
+          <t>11,09; 15,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,16; 13,48</t>
+          <t>8,1; 12,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,62; 12,0</t>
+          <t>6,13; 10,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,45; 8,38</t>
+          <t>1,78; 9,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>51,86; 118,81</t>
+          <t>66,42; 102,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>37,58; 102,04</t>
+          <t>46,43; 78,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>27,41; 89,38</t>
+          <t>36,78; 67,25</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,73; 48,98</t>
+          <t>11,18; 66,38</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>12,99</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>10,02</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>8,18</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>5,62</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>83,06%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>60,1%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>52,13%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>31,68%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>11,09; 15,1</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>8,1; 12,23</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>6,13; 10,02</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>2,98; 7,49</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>66,42; 102,7</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>46,43; 78,67</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>36,78; 67,25</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>16,55; 45,65</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P7_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P7_R-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,19; 16,81</t>
+          <t>8,57; 17,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,11; 13,89</t>
+          <t>5,15; 14,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,46; 14,81</t>
+          <t>5,94; 15,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 6,98</t>
+          <t>-3,23; 7,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>41,55; 111,57</t>
+          <t>42,92; 111,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,44; 87,81</t>
+          <t>25,4; 89,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>28,33; 101,35</t>
+          <t>29,85; 101,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-13,87; 33,23</t>
+          <t>-12,63; 38,16</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,32; 19,8</t>
+          <t>12,43; 20,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,2; 13,67</t>
+          <t>5,99; 13,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,75; 11,78</t>
+          <t>5,19; 12,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,7; 19,36</t>
+          <t>8,66; 19,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>71,97; 145,12</t>
+          <t>72,35; 147,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>32,26; 85,19</t>
+          <t>31,22; 83,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>27,54; 85,14</t>
+          <t>30,95; 89,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>56,2; 311,44</t>
+          <t>57,11; 325,63</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,72; 14,63</t>
+          <t>6,14; 14,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,27; 15,83</t>
+          <t>6,76; 15,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,05; 10,3</t>
+          <t>2,1; 10,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,6; 6,06</t>
+          <t>-9,05; 6,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>31,41; 107,3</t>
+          <t>32,92; 107,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>38,87; 109,59</t>
+          <t>34,63; 111,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,08; 74,56</t>
+          <t>11,19; 71,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-48,63; 41,14</t>
+          <t>-50,74; 45,69</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,33; 15,41</t>
+          <t>7,86; 15,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,16; 13,48</t>
+          <t>6,52; 13,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,62; 12,0</t>
+          <t>4,29; 11,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 7,9</t>
+          <t>-0,45; 7,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>51,86; 118,81</t>
+          <t>49,27; 125,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>37,58; 102,04</t>
+          <t>39,28; 101,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,41; 89,38</t>
+          <t>25,52; 85,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 44,99</t>
+          <t>-1,85; 46,09</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,09; 15,1</t>
+          <t>10,76; 14,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,1; 12,23</t>
+          <t>7,95; 11,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,13; 10,02</t>
+          <t>6,03; 9,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,78; 9,16</t>
+          <t>1,75; 8,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>66,42; 102,7</t>
+          <t>64,22; 100,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>46,43; 78,67</t>
+          <t>44,52; 76,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>36,78; 67,25</t>
+          <t>36,13; 67,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,18; 66,38</t>
+          <t>11,21; 62,96</t>
         </is>
       </c>
     </row>
